--- a/Output/Tables/table 5 - Wind SA Age.xlsx
+++ b/Output/Tables/table 5 - Wind SA Age.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10070" windowHeight="6010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Wind SA Age" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Hallett Wind Farm</t>
   </si>
@@ -30,18 +30,36 @@
     <t>Snowtown Wind Farm</t>
   </si>
   <si>
+    <t>Canunda Wind Farm</t>
+  </si>
+  <si>
+    <t>Cathedral Rocks Wind Farm</t>
+  </si>
+  <si>
     <t>Clements Gap Wind Farm</t>
   </si>
   <si>
+    <t>Lake Bonney Stage 1</t>
+  </si>
+  <si>
+    <t>Mount Millar Wind Farm</t>
+  </si>
+  <si>
+    <t>Starfish Hill Wind Farm</t>
+  </si>
+  <si>
+    <t>Wattle Point Wind Farm</t>
+  </si>
+  <si>
     <t>Lake Bonney Stage 3</t>
   </si>
   <si>
+    <t>North Brown Hill Wind Farm</t>
+  </si>
+  <si>
     <t>Waterloo Wind Farm</t>
   </si>
   <si>
-    <t>North Brown Hill Wind Farm</t>
-  </si>
-  <si>
     <t>The Bluff Wind Farm</t>
   </si>
   <si>
@@ -60,10 +78,10 @@
     <t>Lincoln Gap Wind Farm</t>
   </si>
   <si>
+    <t>Generator</t>
+  </si>
+  <si>
     <t>Commission Year</t>
-  </si>
-  <si>
-    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -880,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="B20" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,10 +912,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -937,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -945,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -953,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -961,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -969,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -977,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2014</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -985,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2016</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -993,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -1001,6 +1019,54 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>2019</v>
       </c>
     </row>
